--- a/Excel files/Markov model.xlsx
+++ b/Excel files/Markov model.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbounthavong/Library/CloudStorage/Dropbox/UCSD Folder/Courses/SPPS 209/2023 - Spring Quarter/Markov model example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbounthavong\Dropbox\Marks blog\Markov model tutorial\Markov model - Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA43EDB9-5513-2642-860F-B1773B9EDA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49752BC-80EF-4630-8A6E-40B37B48BD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1040" windowWidth="30240" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2865" yWindow="2085" windowWidth="30450" windowHeight="18180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="5" r:id="rId1"/>
     <sheet name="Markov model parameters" sheetId="1" r:id="rId2"/>
     <sheet name="Markov model Simulation" sheetId="2" r:id="rId3"/>
     <sheet name="Model output" sheetId="4" r:id="rId4"/>
-    <sheet name="Markov model states" sheetId="3" r:id="rId5"/>
+    <sheet name="Markov model trace" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -195,9 +195,6 @@
     <t>Introduction - Markov models</t>
   </si>
   <si>
-    <t>These parameers are fictional</t>
-  </si>
-  <si>
     <t>Cohort size</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>These parameters are fictional</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Markov model states</a:t>
+              <a:t>Markov model trace</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3188,7 +3188,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C0FA5E14-5887-445D-95C9-F9C9F462B8DA}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4067,23 +4067,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318112D6-5B3D-486F-951A-5778B381D0E2}">
   <dimension ref="B1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:2" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:2" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4094,33 +4094,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView topLeftCell="E12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="2" customWidth="1"/>
-    <col min="2" max="12" width="9.1640625" style="2"/>
-    <col min="13" max="13" width="3.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="23.5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="2.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="12" width="9.140625" style="2"/>
+    <col min="13" max="13" width="3.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="2.42578125" style="2" customWidth="1"/>
     <col min="16" max="16" width="36" style="3" customWidth="1"/>
-    <col min="17" max="17" width="2.6640625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="18.83203125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="2.6640625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="33.1640625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="2.6640625" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="2"/>
+    <col min="17" max="17" width="2.7109375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="33.140625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="2.7109375" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="2:21" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:21" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>30</v>
       </c>
@@ -4129,13 +4129,13 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="2:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -4146,7 +4146,7 @@
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M9" s="9"/>
       <c r="N9" s="14" t="s">
         <v>0</v>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="U9" s="9"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M10" s="9"/>
       <c r="N10" s="12" t="s">
         <v>2</v>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="U10" s="9"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M11" s="9"/>
       <c r="N11" s="12" t="s">
         <v>3</v>
@@ -4204,7 +4204,7 @@
       </c>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M12" s="9"/>
       <c r="N12" s="12" t="s">
         <v>4</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M13" s="9"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
@@ -4234,7 +4234,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M14" s="9"/>
       <c r="N14" s="12" t="s">
         <v>6</v>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M15" s="9"/>
       <c r="N15" s="12" t="s">
         <v>5</v>
@@ -4273,7 +4273,7 @@
       </c>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M16" s="9"/>
       <c r="N16" s="12" t="s">
         <v>7</v>
@@ -4292,7 +4292,7 @@
       </c>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M17" s="9"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
@@ -4303,7 +4303,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M18" s="9"/>
       <c r="N18" s="12" t="s">
         <v>8</v>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -4333,7 +4333,7 @@
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
     </row>
-    <row r="21" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
@@ -4344,7 +4344,7 @@
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
     </row>
-    <row r="22" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M22" s="9"/>
       <c r="N22" s="14" t="s">
         <v>0</v>
@@ -4363,7 +4363,7 @@
       </c>
       <c r="U22" s="9"/>
     </row>
-    <row r="23" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M23" s="9"/>
       <c r="N23" s="12" t="s">
         <v>18</v>
@@ -4378,11 +4378,11 @@
       </c>
       <c r="S23" s="10"/>
       <c r="T23" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="U23" s="9"/>
     </row>
-    <row r="24" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M24" s="9"/>
       <c r="N24" s="12" t="s">
         <v>19</v>
@@ -4397,11 +4397,11 @@
       </c>
       <c r="S24" s="10"/>
       <c r="T24" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M25" s="9"/>
       <c r="N25" s="12" t="s">
         <v>20</v>
@@ -4416,11 +4416,11 @@
       </c>
       <c r="S25" s="10"/>
       <c r="T25" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="U25" s="9"/>
     </row>
-    <row r="26" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
@@ -4431,7 +4431,7 @@
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
     </row>
-    <row r="28" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
@@ -4442,7 +4442,7 @@
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
     </row>
-    <row r="29" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M29" s="9"/>
       <c r="N29" s="12" t="s">
         <v>38</v>
@@ -4459,7 +4459,7 @@
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
     </row>
-    <row r="30" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M30" s="9"/>
       <c r="N30" s="12" t="s">
         <v>37</v>
@@ -4476,7 +4476,7 @@
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
     </row>
-    <row r="31" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
@@ -4487,9 +4487,9 @@
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
     </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J37" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -4502,66 +4502,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC31E29-F614-43EB-9330-CED04AC184F2}">
   <dimension ref="B1:AM113"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+    <sheetView topLeftCell="D12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="4" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="1"/>
-    <col min="6" max="6" width="3.6640625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="9.1640625" style="1"/>
-    <col min="11" max="11" width="3.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="3.7109375" style="1" customWidth="1"/>
+    <col min="7" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="3.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="4" style="1" customWidth="1"/>
-    <col min="13" max="13" width="3.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.1640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="4" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="3.6640625" style="1" customWidth="1"/>
-    <col min="21" max="22" width="11.1640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="10.33203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5" style="1" customWidth="1"/>
-    <col min="25" max="25" width="4.33203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="9.1640625" style="1"/>
-    <col min="27" max="27" width="3.1640625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.33203125" style="1" customWidth="1"/>
-    <col min="29" max="30" width="9.1640625" style="1"/>
-    <col min="31" max="31" width="10.5" style="1" customWidth="1"/>
-    <col min="32" max="32" width="3.1640625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="6.5" style="1" customWidth="1"/>
-    <col min="34" max="34" width="3.1640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="9.1640625" style="1"/>
-    <col min="36" max="36" width="11.1640625" style="1" customWidth="1"/>
-    <col min="37" max="38" width="9.1640625" style="1"/>
-    <col min="39" max="39" width="3.5" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="9.1640625" style="1"/>
+    <col min="19" max="19" width="4.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="3.7109375" style="1" customWidth="1"/>
+    <col min="21" max="22" width="11.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="4.28515625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" style="1"/>
+    <col min="27" max="27" width="3.140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" style="1" customWidth="1"/>
+    <col min="29" max="30" width="9.140625" style="1"/>
+    <col min="31" max="31" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="3.140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="6.42578125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="3.140625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" style="1"/>
+    <col min="36" max="36" width="11.140625" style="1" customWidth="1"/>
+    <col min="37" max="38" width="9.140625" style="1"/>
+    <col min="39" max="39" width="3.42578125" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:39" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:39" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:39" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:39" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:39" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:39" x14ac:dyDescent="0.25">
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:39" x14ac:dyDescent="0.25">
       <c r="D6" s="4"/>
       <c r="E6" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5">
@@ -4569,14 +4569,14 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:39" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="9" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:39" x14ac:dyDescent="0.25">
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -4610,14 +4610,14 @@
       <c r="AL9" s="4"/>
       <c r="AM9" s="4"/>
     </row>
-    <row r="10" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:39" x14ac:dyDescent="0.25">
       <c r="D10" s="4"/>
       <c r="E10" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="7"/>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="AM10" s="4"/>
     </row>
-    <row r="11" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:39" x14ac:dyDescent="0.25">
       <c r="D11" s="4"/>
       <c r="E11" s="7" t="s">
         <v>22</v>
@@ -4752,7 +4752,7 @@
       </c>
       <c r="AM11" s="4"/>
     </row>
-    <row r="12" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:39" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
       <c r="E12" s="5">
         <v>0</v>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="AM12" s="4"/>
     </row>
-    <row r="13" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:39" x14ac:dyDescent="0.25">
       <c r="D13" s="4"/>
       <c r="E13" s="5">
         <v>1</v>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="AM13" s="4"/>
     </row>
-    <row r="14" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:39" x14ac:dyDescent="0.25">
       <c r="D14" s="4"/>
       <c r="E14" s="5">
         <v>2</v>
@@ -5040,7 +5040,7 @@
       </c>
       <c r="AM14" s="4"/>
     </row>
-    <row r="15" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:39" x14ac:dyDescent="0.25">
       <c r="D15" s="4"/>
       <c r="E15" s="5">
         <v>3</v>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="AM15" s="4"/>
     </row>
-    <row r="16" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:39" x14ac:dyDescent="0.25">
       <c r="D16" s="4"/>
       <c r="E16" s="5">
         <v>4</v>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="AM16" s="4"/>
     </row>
-    <row r="17" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D17" s="4"/>
       <c r="E17" s="5">
         <v>5</v>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="AM17" s="4"/>
     </row>
-    <row r="18" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
       <c r="E18" s="5">
         <v>6</v>
@@ -5424,7 +5424,7 @@
       </c>
       <c r="AM18" s="4"/>
     </row>
-    <row r="19" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D19" s="4"/>
       <c r="E19" s="5">
         <v>7</v>
@@ -5520,7 +5520,7 @@
       </c>
       <c r="AM19" s="4"/>
     </row>
-    <row r="20" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D20" s="4"/>
       <c r="E20" s="5">
         <v>8</v>
@@ -5616,7 +5616,7 @@
       </c>
       <c r="AM20" s="4"/>
     </row>
-    <row r="21" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D21" s="4"/>
       <c r="E21" s="5">
         <v>9</v>
@@ -5712,7 +5712,7 @@
       </c>
       <c r="AM21" s="4"/>
     </row>
-    <row r="22" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D22" s="4"/>
       <c r="E22" s="5">
         <v>10</v>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="AM22" s="4"/>
     </row>
-    <row r="23" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D23" s="4"/>
       <c r="E23" s="5">
         <v>11</v>
@@ -5904,7 +5904,7 @@
       </c>
       <c r="AM23" s="4"/>
     </row>
-    <row r="24" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D24" s="4"/>
       <c r="E24" s="5">
         <v>12</v>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="AM24" s="4"/>
     </row>
-    <row r="25" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D25" s="4"/>
       <c r="E25" s="5">
         <v>13</v>
@@ -6096,7 +6096,7 @@
       </c>
       <c r="AM25" s="4"/>
     </row>
-    <row r="26" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D26" s="4"/>
       <c r="E26" s="5">
         <v>14</v>
@@ -6192,7 +6192,7 @@
       </c>
       <c r="AM26" s="4"/>
     </row>
-    <row r="27" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D27" s="4"/>
       <c r="E27" s="5">
         <v>15</v>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="AM27" s="4"/>
     </row>
-    <row r="28" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D28" s="4"/>
       <c r="E28" s="5">
         <v>16</v>
@@ -6384,7 +6384,7 @@
       </c>
       <c r="AM28" s="4"/>
     </row>
-    <row r="29" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D29" s="4"/>
       <c r="E29" s="5">
         <v>17</v>
@@ -6480,7 +6480,7 @@
       </c>
       <c r="AM29" s="4"/>
     </row>
-    <row r="30" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D30" s="4"/>
       <c r="E30" s="5">
         <v>18</v>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="AM30" s="4"/>
     </row>
-    <row r="31" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D31" s="4"/>
       <c r="E31" s="5">
         <v>19</v>
@@ -6672,7 +6672,7 @@
       </c>
       <c r="AM31" s="4"/>
     </row>
-    <row r="32" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D32" s="4"/>
       <c r="E32" s="5">
         <v>20</v>
@@ -6768,7 +6768,7 @@
       </c>
       <c r="AM32" s="4"/>
     </row>
-    <row r="33" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D33" s="4"/>
       <c r="E33" s="5">
         <v>21</v>
@@ -6864,7 +6864,7 @@
       </c>
       <c r="AM33" s="4"/>
     </row>
-    <row r="34" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D34" s="4"/>
       <c r="E34" s="5">
         <v>22</v>
@@ -6960,7 +6960,7 @@
       </c>
       <c r="AM34" s="4"/>
     </row>
-    <row r="35" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D35" s="4"/>
       <c r="E35" s="5">
         <v>23</v>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="AM35" s="4"/>
     </row>
-    <row r="36" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D36" s="4"/>
       <c r="E36" s="5">
         <v>24</v>
@@ -7152,7 +7152,7 @@
       </c>
       <c r="AM36" s="4"/>
     </row>
-    <row r="37" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D37" s="4"/>
       <c r="E37" s="5">
         <v>25</v>
@@ -7248,7 +7248,7 @@
       </c>
       <c r="AM37" s="4"/>
     </row>
-    <row r="38" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D38" s="4"/>
       <c r="E38" s="5">
         <v>26</v>
@@ -7344,7 +7344,7 @@
       </c>
       <c r="AM38" s="4"/>
     </row>
-    <row r="39" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D39" s="4"/>
       <c r="E39" s="5">
         <v>27</v>
@@ -7440,7 +7440,7 @@
       </c>
       <c r="AM39" s="4"/>
     </row>
-    <row r="40" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D40" s="4"/>
       <c r="E40" s="5">
         <v>28</v>
@@ -7536,7 +7536,7 @@
       </c>
       <c r="AM40" s="4"/>
     </row>
-    <row r="41" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D41" s="4"/>
       <c r="E41" s="5">
         <v>29</v>
@@ -7632,7 +7632,7 @@
       </c>
       <c r="AM41" s="4"/>
     </row>
-    <row r="42" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D42" s="4"/>
       <c r="E42" s="5">
         <v>30</v>
@@ -7728,7 +7728,7 @@
       </c>
       <c r="AM42" s="4"/>
     </row>
-    <row r="43" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D43" s="4"/>
       <c r="E43" s="5">
         <v>31</v>
@@ -7824,7 +7824,7 @@
       </c>
       <c r="AM43" s="4"/>
     </row>
-    <row r="44" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D44" s="4"/>
       <c r="E44" s="5">
         <v>32</v>
@@ -7920,7 +7920,7 @@
       </c>
       <c r="AM44" s="4"/>
     </row>
-    <row r="45" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D45" s="4"/>
       <c r="E45" s="5">
         <v>33</v>
@@ -8016,7 +8016,7 @@
       </c>
       <c r="AM45" s="4"/>
     </row>
-    <row r="46" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D46" s="4"/>
       <c r="E46" s="5">
         <v>34</v>
@@ -8112,7 +8112,7 @@
       </c>
       <c r="AM46" s="4"/>
     </row>
-    <row r="47" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D47" s="4"/>
       <c r="E47" s="5">
         <v>35</v>
@@ -8208,7 +8208,7 @@
       </c>
       <c r="AM47" s="4"/>
     </row>
-    <row r="48" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D48" s="4"/>
       <c r="E48" s="5">
         <v>36</v>
@@ -8304,7 +8304,7 @@
       </c>
       <c r="AM48" s="4"/>
     </row>
-    <row r="49" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D49" s="4"/>
       <c r="E49" s="5">
         <v>37</v>
@@ -8400,7 +8400,7 @@
       </c>
       <c r="AM49" s="4"/>
     </row>
-    <row r="50" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D50" s="4"/>
       <c r="E50" s="5">
         <v>38</v>
@@ -8496,7 +8496,7 @@
       </c>
       <c r="AM50" s="4"/>
     </row>
-    <row r="51" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D51" s="4"/>
       <c r="E51" s="5">
         <v>39</v>
@@ -8592,7 +8592,7 @@
       </c>
       <c r="AM51" s="4"/>
     </row>
-    <row r="52" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D52" s="4"/>
       <c r="E52" s="5">
         <v>40</v>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="AM52" s="4"/>
     </row>
-    <row r="53" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D53" s="4"/>
       <c r="E53" s="5">
         <v>41</v>
@@ -8784,7 +8784,7 @@
       </c>
       <c r="AM53" s="4"/>
     </row>
-    <row r="54" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D54" s="4"/>
       <c r="E54" s="5">
         <v>42</v>
@@ -8880,7 +8880,7 @@
       </c>
       <c r="AM54" s="4"/>
     </row>
-    <row r="55" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D55" s="4"/>
       <c r="E55" s="5">
         <v>43</v>
@@ -8976,7 +8976,7 @@
       </c>
       <c r="AM55" s="4"/>
     </row>
-    <row r="56" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D56" s="4"/>
       <c r="E56" s="5">
         <v>44</v>
@@ -9072,7 +9072,7 @@
       </c>
       <c r="AM56" s="4"/>
     </row>
-    <row r="57" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D57" s="4"/>
       <c r="E57" s="5">
         <v>45</v>
@@ -9168,7 +9168,7 @@
       </c>
       <c r="AM57" s="4"/>
     </row>
-    <row r="58" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D58" s="4"/>
       <c r="E58" s="5">
         <v>46</v>
@@ -9264,7 +9264,7 @@
       </c>
       <c r="AM58" s="4"/>
     </row>
-    <row r="59" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D59" s="4"/>
       <c r="E59" s="5">
         <v>47</v>
@@ -9360,7 +9360,7 @@
       </c>
       <c r="AM59" s="4"/>
     </row>
-    <row r="60" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D60" s="4"/>
       <c r="E60" s="5">
         <v>48</v>
@@ -9456,7 +9456,7 @@
       </c>
       <c r="AM60" s="4"/>
     </row>
-    <row r="61" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D61" s="4"/>
       <c r="E61" s="5">
         <v>49</v>
@@ -9552,7 +9552,7 @@
       </c>
       <c r="AM61" s="4"/>
     </row>
-    <row r="62" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D62" s="4"/>
       <c r="E62" s="5">
         <v>50</v>
@@ -9648,7 +9648,7 @@
       </c>
       <c r="AM62" s="4"/>
     </row>
-    <row r="63" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D63" s="4"/>
       <c r="E63" s="5">
         <v>51</v>
@@ -9744,7 +9744,7 @@
       </c>
       <c r="AM63" s="4"/>
     </row>
-    <row r="64" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D64" s="4"/>
       <c r="E64" s="5">
         <v>52</v>
@@ -9840,7 +9840,7 @@
       </c>
       <c r="AM64" s="4"/>
     </row>
-    <row r="65" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D65" s="4"/>
       <c r="E65" s="5">
         <v>53</v>
@@ -9936,7 +9936,7 @@
       </c>
       <c r="AM65" s="4"/>
     </row>
-    <row r="66" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D66" s="4"/>
       <c r="E66" s="5">
         <v>54</v>
@@ -10032,7 +10032,7 @@
       </c>
       <c r="AM66" s="4"/>
     </row>
-    <row r="67" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D67" s="4"/>
       <c r="E67" s="5">
         <v>55</v>
@@ -10128,7 +10128,7 @@
       </c>
       <c r="AM67" s="4"/>
     </row>
-    <row r="68" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D68" s="4"/>
       <c r="E68" s="5">
         <v>56</v>
@@ -10224,7 +10224,7 @@
       </c>
       <c r="AM68" s="4"/>
     </row>
-    <row r="69" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D69" s="4"/>
       <c r="E69" s="5">
         <v>57</v>
@@ -10320,7 +10320,7 @@
       </c>
       <c r="AM69" s="4"/>
     </row>
-    <row r="70" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D70" s="4"/>
       <c r="E70" s="5">
         <v>58</v>
@@ -10416,7 +10416,7 @@
       </c>
       <c r="AM70" s="4"/>
     </row>
-    <row r="71" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D71" s="4"/>
       <c r="E71" s="5">
         <v>59</v>
@@ -10512,7 +10512,7 @@
       </c>
       <c r="AM71" s="4"/>
     </row>
-    <row r="72" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D72" s="4"/>
       <c r="E72" s="5">
         <v>60</v>
@@ -10608,7 +10608,7 @@
       </c>
       <c r="AM72" s="4"/>
     </row>
-    <row r="73" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D73" s="4"/>
       <c r="E73" s="5">
         <v>61</v>
@@ -10704,7 +10704,7 @@
       </c>
       <c r="AM73" s="4"/>
     </row>
-    <row r="74" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D74" s="4"/>
       <c r="E74" s="5">
         <v>62</v>
@@ -10800,7 +10800,7 @@
       </c>
       <c r="AM74" s="4"/>
     </row>
-    <row r="75" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D75" s="4"/>
       <c r="E75" s="5">
         <v>63</v>
@@ -10896,7 +10896,7 @@
       </c>
       <c r="AM75" s="4"/>
     </row>
-    <row r="76" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D76" s="4"/>
       <c r="E76" s="5">
         <v>64</v>
@@ -10992,7 +10992,7 @@
       </c>
       <c r="AM76" s="4"/>
     </row>
-    <row r="77" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D77" s="4"/>
       <c r="E77" s="5">
         <v>65</v>
@@ -11088,7 +11088,7 @@
       </c>
       <c r="AM77" s="4"/>
     </row>
-    <row r="78" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D78" s="4"/>
       <c r="E78" s="5">
         <v>66</v>
@@ -11184,7 +11184,7 @@
       </c>
       <c r="AM78" s="4"/>
     </row>
-    <row r="79" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D79" s="4"/>
       <c r="E79" s="5">
         <v>67</v>
@@ -11280,7 +11280,7 @@
       </c>
       <c r="AM79" s="4"/>
     </row>
-    <row r="80" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D80" s="4"/>
       <c r="E80" s="5">
         <v>68</v>
@@ -11376,7 +11376,7 @@
       </c>
       <c r="AM80" s="4"/>
     </row>
-    <row r="81" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D81" s="4"/>
       <c r="E81" s="5">
         <v>69</v>
@@ -11472,7 +11472,7 @@
       </c>
       <c r="AM81" s="4"/>
     </row>
-    <row r="82" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D82" s="4"/>
       <c r="E82" s="5">
         <v>70</v>
@@ -11568,7 +11568,7 @@
       </c>
       <c r="AM82" s="4"/>
     </row>
-    <row r="83" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D83" s="4"/>
       <c r="E83" s="5">
         <v>71</v>
@@ -11664,7 +11664,7 @@
       </c>
       <c r="AM83" s="4"/>
     </row>
-    <row r="84" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D84" s="4"/>
       <c r="E84" s="5">
         <v>72</v>
@@ -11760,7 +11760,7 @@
       </c>
       <c r="AM84" s="4"/>
     </row>
-    <row r="85" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D85" s="4"/>
       <c r="E85" s="5">
         <v>73</v>
@@ -11856,7 +11856,7 @@
       </c>
       <c r="AM85" s="4"/>
     </row>
-    <row r="86" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D86" s="4"/>
       <c r="E86" s="5">
         <v>74</v>
@@ -11952,7 +11952,7 @@
       </c>
       <c r="AM86" s="4"/>
     </row>
-    <row r="87" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D87" s="4"/>
       <c r="E87" s="5">
         <v>75</v>
@@ -12048,7 +12048,7 @@
       </c>
       <c r="AM87" s="4"/>
     </row>
-    <row r="88" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D88" s="4"/>
       <c r="E88" s="5">
         <v>76</v>
@@ -12144,7 +12144,7 @@
       </c>
       <c r="AM88" s="4"/>
     </row>
-    <row r="89" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D89" s="4"/>
       <c r="E89" s="5">
         <v>77</v>
@@ -12240,7 +12240,7 @@
       </c>
       <c r="AM89" s="4"/>
     </row>
-    <row r="90" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D90" s="4"/>
       <c r="E90" s="5">
         <v>78</v>
@@ -12336,7 +12336,7 @@
       </c>
       <c r="AM90" s="4"/>
     </row>
-    <row r="91" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D91" s="4"/>
       <c r="E91" s="5">
         <v>79</v>
@@ -12432,7 +12432,7 @@
       </c>
       <c r="AM91" s="4"/>
     </row>
-    <row r="92" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D92" s="4"/>
       <c r="E92" s="5">
         <v>80</v>
@@ -12528,7 +12528,7 @@
       </c>
       <c r="AM92" s="4"/>
     </row>
-    <row r="93" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D93" s="4"/>
       <c r="E93" s="5">
         <v>81</v>
@@ -12624,7 +12624,7 @@
       </c>
       <c r="AM93" s="4"/>
     </row>
-    <row r="94" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D94" s="4"/>
       <c r="E94" s="5">
         <v>82</v>
@@ -12720,7 +12720,7 @@
       </c>
       <c r="AM94" s="4"/>
     </row>
-    <row r="95" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D95" s="4"/>
       <c r="E95" s="5">
         <v>83</v>
@@ -12816,7 +12816,7 @@
       </c>
       <c r="AM95" s="4"/>
     </row>
-    <row r="96" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D96" s="4"/>
       <c r="E96" s="5">
         <v>84</v>
@@ -12912,7 +12912,7 @@
       </c>
       <c r="AM96" s="4"/>
     </row>
-    <row r="97" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D97" s="4"/>
       <c r="E97" s="5">
         <v>85</v>
@@ -13008,7 +13008,7 @@
       </c>
       <c r="AM97" s="4"/>
     </row>
-    <row r="98" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D98" s="4"/>
       <c r="E98" s="5">
         <v>86</v>
@@ -13104,7 +13104,7 @@
       </c>
       <c r="AM98" s="4"/>
     </row>
-    <row r="99" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D99" s="4"/>
       <c r="E99" s="5">
         <v>87</v>
@@ -13200,7 +13200,7 @@
       </c>
       <c r="AM99" s="4"/>
     </row>
-    <row r="100" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D100" s="4"/>
       <c r="E100" s="5">
         <v>88</v>
@@ -13296,7 +13296,7 @@
       </c>
       <c r="AM100" s="4"/>
     </row>
-    <row r="101" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D101" s="4"/>
       <c r="E101" s="5">
         <v>89</v>
@@ -13392,7 +13392,7 @@
       </c>
       <c r="AM101" s="4"/>
     </row>
-    <row r="102" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D102" s="4"/>
       <c r="E102" s="5">
         <v>90</v>
@@ -13488,7 +13488,7 @@
       </c>
       <c r="AM102" s="4"/>
     </row>
-    <row r="103" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D103" s="4"/>
       <c r="E103" s="5">
         <v>91</v>
@@ -13584,7 +13584,7 @@
       </c>
       <c r="AM103" s="4"/>
     </row>
-    <row r="104" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D104" s="4"/>
       <c r="E104" s="5">
         <v>92</v>
@@ -13680,7 +13680,7 @@
       </c>
       <c r="AM104" s="4"/>
     </row>
-    <row r="105" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D105" s="4"/>
       <c r="E105" s="5">
         <v>93</v>
@@ -13776,7 +13776,7 @@
       </c>
       <c r="AM105" s="4"/>
     </row>
-    <row r="106" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D106" s="4"/>
       <c r="E106" s="5">
         <v>94</v>
@@ -13872,7 +13872,7 @@
       </c>
       <c r="AM106" s="4"/>
     </row>
-    <row r="107" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D107" s="4"/>
       <c r="E107" s="5">
         <v>95</v>
@@ -13968,7 +13968,7 @@
       </c>
       <c r="AM107" s="4"/>
     </row>
-    <row r="108" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D108" s="4"/>
       <c r="E108" s="5">
         <v>96</v>
@@ -14064,7 +14064,7 @@
       </c>
       <c r="AM108" s="4"/>
     </row>
-    <row r="109" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D109" s="4"/>
       <c r="E109" s="5">
         <v>97</v>
@@ -14160,7 +14160,7 @@
       </c>
       <c r="AM109" s="4"/>
     </row>
-    <row r="110" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D110" s="4"/>
       <c r="E110" s="5">
         <v>98</v>
@@ -14256,7 +14256,7 @@
       </c>
       <c r="AM110" s="4"/>
     </row>
-    <row r="111" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D111" s="4"/>
       <c r="E111" s="5">
         <v>99</v>
@@ -14352,7 +14352,7 @@
       </c>
       <c r="AM111" s="4"/>
     </row>
-    <row r="112" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D112" s="4"/>
       <c r="E112" s="5">
         <v>100</v>
@@ -14448,7 +14448,7 @@
       </c>
       <c r="AM112" s="4"/>
     </row>
-    <row r="113" spans="4:39" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -14493,33 +14493,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B19378E-C126-4A4E-B97A-0577DAF92360}">
   <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="2"/>
-    <col min="3" max="3" width="2.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="2.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="22" style="2" customWidth="1"/>
     <col min="5" max="5" width="12" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.83203125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="2"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -14529,7 +14529,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" s="9"/>
       <c r="D8" s="14" t="s">
         <v>40</v>
@@ -14551,7 +14551,7 @@
       </c>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C9" s="9"/>
       <c r="D9" s="12" t="s">
         <v>46</v>
@@ -14578,7 +14578,7 @@
       </c>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C10" s="9"/>
       <c r="D10" s="12" t="s">
         <v>47</v>
@@ -14596,7 +14596,7 @@
       <c r="I10" s="28"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
